--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="H2">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="I2">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="J2">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N2">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O2">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P2">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q2">
-        <v>14692.60458121997</v>
+        <v>19104.9269386689</v>
       </c>
       <c r="R2">
-        <v>58770.41832487987</v>
+        <v>76419.7077546756</v>
       </c>
       <c r="S2">
-        <v>0.2249360655440016</v>
+        <v>0.3930810650299238</v>
       </c>
       <c r="T2">
-        <v>0.1623192611652358</v>
+        <v>0.3870600682352652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="H3">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="I3">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="J3">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.735872</v>
       </c>
       <c r="O3">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P3">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q3">
-        <v>110.541133947008</v>
+        <v>126.051265620864</v>
       </c>
       <c r="R3">
-        <v>663.2468036820478</v>
+        <v>756.3075937251839</v>
       </c>
       <c r="S3">
-        <v>0.001692326749376649</v>
+        <v>0.002593486271770649</v>
       </c>
       <c r="T3">
-        <v>0.001831835372495526</v>
+        <v>0.003830641040579069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="H4">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="I4">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="J4">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N4">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O4">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P4">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q4">
-        <v>85.33625301168399</v>
+        <v>41.477413989978</v>
       </c>
       <c r="R4">
-        <v>512.017518070104</v>
+        <v>248.864483939868</v>
       </c>
       <c r="S4">
-        <v>0.001306453249633553</v>
+        <v>0.0008533916993353112</v>
       </c>
       <c r="T4">
-        <v>0.001414152010580689</v>
+        <v>0.00126047988097947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="H5">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="I5">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="J5">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N5">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O5">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P5">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q5">
-        <v>5308.486085158678</v>
+        <v>10895.12053174548</v>
       </c>
       <c r="R5">
-        <v>21233.94434063471</v>
+        <v>43580.4821269819</v>
       </c>
       <c r="S5">
-        <v>0.08127013610077882</v>
+        <v>0.2241655043223258</v>
       </c>
       <c r="T5">
-        <v>0.0586464798998453</v>
+        <v>0.2207318619948964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="H6">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="I6">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="J6">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N6">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O6">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P6">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q6">
-        <v>10699.07179234778</v>
+        <v>229.440438892962</v>
       </c>
       <c r="R6">
-        <v>64194.43075408668</v>
+        <v>1376.642633357772</v>
       </c>
       <c r="S6">
-        <v>0.1637971743294335</v>
+        <v>0.004720703322787079</v>
       </c>
       <c r="T6">
-        <v>0.1772999557928115</v>
+        <v>0.006972591328320453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="H7">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="I7">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="J7">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N7">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O7">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P7">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q7">
-        <v>83.09203371196797</v>
+        <v>75.21912928993051</v>
       </c>
       <c r="R7">
-        <v>498.5522022718079</v>
+        <v>451.314775739583</v>
       </c>
       <c r="S7">
-        <v>0.001272095429908297</v>
+        <v>0.00154762253458633</v>
       </c>
       <c r="T7">
-        <v>0.001376961870131907</v>
+        <v>0.002285875372019576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.735872</v>
       </c>
       <c r="I8">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="J8">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N8">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O8">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P8">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q8">
-        <v>110.541133947008</v>
+        <v>126.051265620864</v>
       </c>
       <c r="R8">
-        <v>663.2468036820478</v>
+        <v>756.3075937251839</v>
       </c>
       <c r="S8">
-        <v>0.001692326749376649</v>
+        <v>0.002593486271770649</v>
       </c>
       <c r="T8">
-        <v>0.001831835372495526</v>
+        <v>0.003830641040579069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.735872</v>
       </c>
       <c r="I9">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="J9">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,10 +998,10 @@
         <v>2.735872</v>
       </c>
       <c r="O9">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P9">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q9">
         <v>0.8316661778204442</v>
@@ -1010,10 +1010,10 @@
         <v>7.484995600383998</v>
       </c>
       <c r="S9">
-        <v>1.273237272879876E-05</v>
+        <v>1.711140942734237E-05</v>
       </c>
       <c r="T9">
-        <v>2.067296763080943E-05</v>
+        <v>3.791093937608043E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>2.735872</v>
       </c>
       <c r="I10">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="J10">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N10">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O10">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P10">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q10">
-        <v>0.6420349858702221</v>
+        <v>0.2736613725297777</v>
       </c>
       <c r="R10">
-        <v>5.778314872831999</v>
+        <v>2.462952352768</v>
       </c>
       <c r="S10">
-        <v>9.829218697400972E-06</v>
+        <v>5.630542535801532E-06</v>
       </c>
       <c r="T10">
-        <v>1.595925003891149E-05</v>
+        <v>1.247466829869239E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.735872</v>
       </c>
       <c r="I11">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="J11">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N11">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O11">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P11">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q11">
-        <v>39.93887320328533</v>
+        <v>71.88427029986133</v>
       </c>
       <c r="R11">
-        <v>239.633239219712</v>
+        <v>431.305621799168</v>
       </c>
       <c r="S11">
-        <v>0.0006114431890510879</v>
+        <v>0.001479008300794744</v>
       </c>
       <c r="T11">
-        <v>0.0006618481108260066</v>
+        <v>0.002184530513251347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>2.735872</v>
       </c>
       <c r="I12">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="J12">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N12">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O12">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P12">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q12">
-        <v>80.49543030772621</v>
+        <v>1.513811479096889</v>
       </c>
       <c r="R12">
-        <v>724.4588727695359</v>
+        <v>13.624303311872</v>
       </c>
       <c r="S12">
-        <v>0.001232342794471904</v>
+        <v>3.114644878612597E-05</v>
       </c>
       <c r="T12">
-        <v>0.002000898280534589</v>
+        <v>6.900607087480625E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,10 +1228,10 @@
         <v>2.735872</v>
       </c>
       <c r="I13">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="J13">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N13">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O13">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P13">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q13">
-        <v>0.6251503998293332</v>
+        <v>0.4962838369564444</v>
       </c>
       <c r="R13">
-        <v>5.626353598463998</v>
+        <v>4.466554532608</v>
       </c>
       <c r="S13">
-        <v>9.570724546048714E-06</v>
+        <v>1.021096703558334E-05</v>
       </c>
       <c r="T13">
-        <v>1.553954498177224E-05</v>
+        <v>2.262276254337037E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="H14">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="I14">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="J14">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N14">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O14">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P14">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q14">
-        <v>85.33625301168399</v>
+        <v>41.477413989978</v>
       </c>
       <c r="R14">
-        <v>512.017518070104</v>
+        <v>248.864483939868</v>
       </c>
       <c r="S14">
-        <v>0.001306453249633553</v>
+        <v>0.0008533916993353112</v>
       </c>
       <c r="T14">
-        <v>0.001414152010580689</v>
+        <v>0.00126047988097947</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="H15">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="I15">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="J15">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.735872</v>
       </c>
       <c r="O15">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P15">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q15">
-        <v>0.6420349858702221</v>
+        <v>0.2736613725297777</v>
       </c>
       <c r="R15">
-        <v>5.778314872831999</v>
+        <v>2.462952352768</v>
       </c>
       <c r="S15">
-        <v>9.829218697400972E-06</v>
+        <v>5.630542535801532E-06</v>
       </c>
       <c r="T15">
-        <v>1.595925003891149E-05</v>
+        <v>1.247466829869239E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="H16">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="I16">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="J16">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N16">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O16">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P16">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q16">
-        <v>0.4956422830151112</v>
+        <v>0.09004880661511114</v>
       </c>
       <c r="R16">
-        <v>4.460780547135999</v>
+        <v>0.810439259536</v>
       </c>
       <c r="S16">
-        <v>7.588023242738663E-06</v>
+        <v>1.852740966902003E-06</v>
       </c>
       <c r="T16">
-        <v>1.232032412341778E-05</v>
+        <v>4.104813853823584E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="H17">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="I17">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="J17">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N17">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O17">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P17">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q17">
-        <v>30.83226729256267</v>
+        <v>23.65365888163934</v>
       </c>
       <c r="R17">
-        <v>184.993603755376</v>
+        <v>141.921953289836</v>
       </c>
       <c r="S17">
-        <v>0.000472025831652389</v>
+        <v>0.0004866705564955757</v>
       </c>
       <c r="T17">
-        <v>0.0005109377461952651</v>
+        <v>0.000718824012004745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="H18">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="I18">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="J18">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N18">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O18">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P18">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q18">
-        <v>62.14137816170311</v>
+        <v>0.4981226099715556</v>
       </c>
       <c r="R18">
-        <v>559.272403455328</v>
+        <v>4.483103489744</v>
       </c>
       <c r="S18">
-        <v>0.0009513518882174141</v>
+        <v>1.024879952023238E-05</v>
       </c>
       <c r="T18">
-        <v>0.001544666277805673</v>
+        <v>2.270658176574748E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="H19">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="I19">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="J19">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N19">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O19">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P19">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q19">
-        <v>0.4826076120746666</v>
+        <v>0.1633031613017778</v>
       </c>
       <c r="R19">
-        <v>4.343468508671999</v>
+        <v>1.469728451716</v>
       </c>
       <c r="S19">
-        <v>7.388469271160883E-06</v>
+        <v>3.359938552674135E-06</v>
       </c>
       <c r="T19">
-        <v>1.199631752363486E-05</v>
+        <v>7.444063992428709E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="H20">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="I20">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="J20">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N20">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O20">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P20">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q20">
-        <v>5308.486085158678</v>
+        <v>10895.12053174548</v>
       </c>
       <c r="R20">
-        <v>21233.94434063471</v>
+        <v>43580.4821269819</v>
       </c>
       <c r="S20">
-        <v>0.08127013610077882</v>
+        <v>0.2241655043223258</v>
       </c>
       <c r="T20">
-        <v>0.0586464798998453</v>
+        <v>0.2207318619948964</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="H21">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="I21">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="J21">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,22 +1742,22 @@
         <v>2.735872</v>
       </c>
       <c r="O21">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P21">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q21">
-        <v>39.93887320328533</v>
+        <v>71.88427029986133</v>
       </c>
       <c r="R21">
-        <v>239.633239219712</v>
+        <v>431.305621799168</v>
       </c>
       <c r="S21">
-        <v>0.0006114431890510879</v>
+        <v>0.001479008300794744</v>
       </c>
       <c r="T21">
-        <v>0.0006618481108260066</v>
+        <v>0.002184530513251347</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="H22">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="I22">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="J22">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N22">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O22">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P22">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q22">
-        <v>30.83226729256267</v>
+        <v>23.65365888163934</v>
       </c>
       <c r="R22">
-        <v>184.993603755376</v>
+        <v>141.921953289836</v>
       </c>
       <c r="S22">
-        <v>0.000472025831652389</v>
+        <v>0.0004866705564955757</v>
       </c>
       <c r="T22">
-        <v>0.0005109377461952651</v>
+        <v>0.000718824012004745</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="H23">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="I23">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="J23">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N23">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O23">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P23">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q23">
-        <v>1917.973383176929</v>
+        <v>6213.248120881442</v>
       </c>
       <c r="R23">
-        <v>7671.893532707717</v>
+        <v>24852.99248352577</v>
       </c>
       <c r="S23">
-        <v>0.02936316595502594</v>
+        <v>0.1278366672896271</v>
       </c>
       <c r="T23">
-        <v>0.02118916498234766</v>
+        <v>0.125878536429439</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="H24">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="I24">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="J24">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N24">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O24">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P24">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q24">
-        <v>3865.609628287975</v>
+        <v>130.8448467047407</v>
       </c>
       <c r="R24">
-        <v>23193.65776972785</v>
+        <v>785.069080228444</v>
       </c>
       <c r="S24">
-        <v>0.05918045475936368</v>
+        <v>0.002692113498339296</v>
       </c>
       <c r="T24">
-        <v>0.0640590538609077</v>
+        <v>0.003976315805055231</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="H25">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="I25">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="J25">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N25">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O25">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P25">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q25">
-        <v>30.021423520192</v>
+        <v>42.89581857798184</v>
       </c>
       <c r="R25">
-        <v>180.128541121152</v>
+        <v>257.374911467891</v>
       </c>
       <c r="S25">
-        <v>0.0004596122390235475</v>
+        <v>0.0008825751653535658</v>
       </c>
       <c r="T25">
-        <v>0.0004975008268263328</v>
+        <v>0.001303584555892419</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="H26">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="I26">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="J26">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N26">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O26">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P26">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q26">
-        <v>10699.07179234778</v>
+        <v>229.440438892962</v>
       </c>
       <c r="R26">
-        <v>64194.43075408668</v>
+        <v>1376.642633357772</v>
       </c>
       <c r="S26">
-        <v>0.1637971743294335</v>
+        <v>0.004720703322787079</v>
       </c>
       <c r="T26">
-        <v>0.1772999557928115</v>
+        <v>0.006972591328320453</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2090,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="H27">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="I27">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="J27">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,22 +2114,22 @@
         <v>2.735872</v>
       </c>
       <c r="O27">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P27">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q27">
-        <v>80.49543030772621</v>
+        <v>1.513811479096889</v>
       </c>
       <c r="R27">
-        <v>724.4588727695359</v>
+        <v>13.624303311872</v>
       </c>
       <c r="S27">
-        <v>0.001232342794471904</v>
+        <v>3.114644878612597E-05</v>
       </c>
       <c r="T27">
-        <v>0.002000898280534589</v>
+        <v>6.900607087480625E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2152,46 +2152,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="H28">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="I28">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="J28">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N28">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O28">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P28">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q28">
-        <v>62.14137816170311</v>
+        <v>0.4981226099715556</v>
       </c>
       <c r="R28">
-        <v>559.272403455328</v>
+        <v>4.483103489744</v>
       </c>
       <c r="S28">
-        <v>0.0009513518882174141</v>
+        <v>1.024879952023238E-05</v>
       </c>
       <c r="T28">
-        <v>0.001544666277805673</v>
+        <v>2.270658176574748E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2214,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="H29">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="I29">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="J29">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N29">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O29">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P29">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q29">
-        <v>3865.609628287975</v>
+        <v>130.8448467047407</v>
       </c>
       <c r="R29">
-        <v>23193.65776972785</v>
+        <v>785.069080228444</v>
       </c>
       <c r="S29">
-        <v>0.05918045475936368</v>
+        <v>0.002692113498339296</v>
       </c>
       <c r="T29">
-        <v>0.0640590538609077</v>
+        <v>0.003976315805055231</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2276,16 +2276,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="H30">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="I30">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="J30">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2294,28 +2294,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N30">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O30">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P30">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q30">
-        <v>7791.003738311127</v>
+        <v>2.755462775041778</v>
       </c>
       <c r="R30">
-        <v>70119.03364480013</v>
+        <v>24.799164975376</v>
       </c>
       <c r="S30">
-        <v>0.1192761785595404</v>
+        <v>5.669324178735623E-05</v>
       </c>
       <c r="T30">
-        <v>0.1936632418018021</v>
+        <v>0.000125605904151856</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2338,16 +2338,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="H31">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="I31">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="J31">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2356,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N31">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O31">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P31">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q31">
-        <v>60.50715032465065</v>
+        <v>0.903343419884889</v>
       </c>
       <c r="R31">
-        <v>544.5643529218559</v>
+        <v>8.130090778964</v>
       </c>
       <c r="S31">
-        <v>0.0009263327176655214</v>
+        <v>1.858615815260825E-05</v>
       </c>
       <c r="T31">
-        <v>0.00150404380201221</v>
+        <v>4.117829790407924E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2400,16 +2400,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="H32">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="I32">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="J32">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N32">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O32">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P32">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q32">
-        <v>83.09203371196797</v>
+        <v>75.21912928993051</v>
       </c>
       <c r="R32">
-        <v>498.5522022718079</v>
+        <v>451.314775739583</v>
       </c>
       <c r="S32">
-        <v>0.001272095429908297</v>
+        <v>0.00154762253458633</v>
       </c>
       <c r="T32">
-        <v>0.001376961870131907</v>
+        <v>0.002285875372019576</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2462,16 +2462,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="H33">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="I33">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="J33">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,22 +2486,22 @@
         <v>2.735872</v>
       </c>
       <c r="O33">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P33">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q33">
-        <v>0.6251503998293332</v>
+        <v>0.4962838369564444</v>
       </c>
       <c r="R33">
-        <v>5.626353598463998</v>
+        <v>4.466554532608</v>
       </c>
       <c r="S33">
-        <v>9.570724546048714E-06</v>
+        <v>1.021096703558334E-05</v>
       </c>
       <c r="T33">
-        <v>1.553954498177224E-05</v>
+        <v>2.262276254337037E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2524,46 +2524,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="H34">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="I34">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="J34">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N34">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O34">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P34">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q34">
-        <v>0.4826076120746666</v>
+        <v>0.1633031613017778</v>
       </c>
       <c r="R34">
-        <v>4.343468508671999</v>
+        <v>1.469728451716</v>
       </c>
       <c r="S34">
-        <v>7.388469271160883E-06</v>
+        <v>3.359938552674135E-06</v>
       </c>
       <c r="T34">
-        <v>1.199631752363486E-05</v>
+        <v>7.444063992428709E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2586,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="H35">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="I35">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="J35">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N35">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O35">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P35">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q35">
-        <v>30.021423520192</v>
+        <v>42.89581857798184</v>
       </c>
       <c r="R35">
-        <v>180.128541121152</v>
+        <v>257.374911467891</v>
       </c>
       <c r="S35">
-        <v>0.0004596122390235475</v>
+        <v>0.0008825751653535658</v>
       </c>
       <c r="T35">
-        <v>0.0004975008268263328</v>
+        <v>0.001303584555892419</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2648,16 +2648,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="H36">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="I36">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="J36">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2666,28 +2666,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N36">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O36">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P36">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q36">
-        <v>60.50715032465065</v>
+        <v>0.903343419884889</v>
       </c>
       <c r="R36">
-        <v>544.5643529218559</v>
+        <v>8.130090778964</v>
       </c>
       <c r="S36">
-        <v>0.0009263327176655214</v>
+        <v>1.858615815260825E-05</v>
       </c>
       <c r="T36">
-        <v>0.00150404380201221</v>
+        <v>4.117829790407924E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2710,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="H37">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="I37">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="J37">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2728,28 +2728,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N37">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O37">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P37">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q37">
-        <v>0.4699157340159998</v>
+        <v>0.2961496492134445</v>
       </c>
       <c r="R37">
-        <v>4.229241606143999</v>
+        <v>2.665346842921</v>
       </c>
       <c r="S37">
-        <v>7.194163278707387E-06</v>
+        <v>6.093235524781852E-06</v>
       </c>
       <c r="T37">
-        <v>1.168083182603367E-05</v>
+        <v>1.349978115859166E-05</v>
       </c>
     </row>
   </sheetData>
